--- a/Planeacion PetClinic/Historias de usuario.xlsx
+++ b/Planeacion PetClinic/Historias de usuario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pesd_\Escritorio\Plantilla Agile documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pesd_\Documents\GitHub\Planeacion-PetClinic\Planeacion PetClinic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55192030-7378-49C7-8837-E6E926FBF25B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C12E2B7-13F3-4DC3-A6C0-1419ADC5668E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>No. Historia de usuario</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>Para poder agregar o modificar los que existan</t>
+  </si>
+  <si>
+    <t>Necesito generar un reporte de los propietarios en existencia</t>
   </si>
 </sst>
 </file>
@@ -687,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -993,7 +996,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>13</v>
